--- a/config_Release/fishbowl_config.xlsx
+++ b/config_Release/fishbowl_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="653"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="653"/>
   </bookViews>
   <sheets>
     <sheet name="fish|鱼配置" sheetId="5" r:id="rId1"/>
@@ -21,7 +26,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'award|奖励'!$C$1:$C$94</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -135,6 +140,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -145,6 +151,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -293,117 +300,117 @@
     <t>总是成群结队，喜欢躲在草里玩捉迷藏。</t>
   </si>
   <si>
+    <t>3dby_icon_yu35</t>
+  </si>
+  <si>
+    <t>小海龟</t>
+  </si>
+  <si>
+    <t>7200,7200,7200,0</t>
+  </si>
+  <si>
+    <t>9,9,9,9</t>
+  </si>
+  <si>
+    <t>9,9,9,41</t>
+  </si>
+  <si>
+    <t>小海龟一直是海里的广播员，只要他知道的事情大家也会第一时间知道。</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu46</t>
+  </si>
+  <si>
+    <t>狮子鱼</t>
+  </si>
+  <si>
+    <t>10,10,10,10</t>
+  </si>
+  <si>
+    <t>10,10,10,42</t>
+  </si>
+  <si>
+    <t>狮子鱼对于任何事物似乎都不感兴趣，当然这只有在他吃饱以后。</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu43</t>
+  </si>
+  <si>
+    <t>魔鬼鱼</t>
+  </si>
+  <si>
+    <t>14400,14400,14400,0</t>
+  </si>
+  <si>
+    <t>30,30,30,0</t>
+  </si>
+  <si>
+    <t>"中量","中量","中量","中量","中量","中量","中量","中量",</t>
+  </si>
+  <si>
+    <t>11,11,11,11</t>
+  </si>
+  <si>
+    <t>11,11,11,43</t>
+  </si>
+  <si>
+    <t>绿色彩贝、普通抽奖、高级抽奖</t>
+  </si>
+  <si>
+    <t>冰冷的外表，不喜欢接触其他人，是个难以靠近的家伙。</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu47</t>
+  </si>
+  <si>
+    <t>虎鲨</t>
+  </si>
+  <si>
+    <t>"中量","大量","中量","大量","中量","大量","中量","大量",</t>
+  </si>
+  <si>
+    <t>12,12,12,12</t>
+  </si>
+  <si>
+    <t>12,12,12,44</t>
+  </si>
+  <si>
+    <t>骄傲自大，总认为自己是海底的霸主，常常自找苦头。</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu33</t>
+  </si>
+  <si>
+    <t>锯齿鲨</t>
+  </si>
+  <si>
+    <t>50,50,50,0</t>
+  </si>
+  <si>
+    <t>13,13,13,13</t>
+  </si>
+  <si>
+    <t>13,13,13,45</t>
+  </si>
+  <si>
+    <t>擅长跳舞，梦想是成为一名优雅的水上芭蕾舞者。</t>
+  </si>
+  <si>
     <t>3dby_icon_yu34</t>
   </si>
   <si>
     <t>锤头鲨</t>
   </si>
   <si>
-    <t>7200,7200,7200,0</t>
-  </si>
-  <si>
-    <t>9,9,9,9</t>
-  </si>
-  <si>
-    <t>9,9,9,41</t>
-  </si>
-  <si>
-    <t>擅长跳舞，梦想是成为一名优雅的水上芭蕾舞者。</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu33</t>
-  </si>
-  <si>
-    <t>锯齿鲨</t>
-  </si>
-  <si>
-    <t>10,10,10,10</t>
-  </si>
-  <si>
-    <t>10,10,10,42</t>
+    <t>14,14,14,14</t>
+  </si>
+  <si>
+    <t>14,14,14,46</t>
   </si>
   <si>
     <t>喜欢在黑暗中惊吓别人，但捉迷藏从来没有赢过。</t>
   </si>
   <si>
-    <t>3dby_icon_yu35</t>
-  </si>
-  <si>
-    <t>小海龟</t>
-  </si>
-  <si>
-    <t>14400,14400,14400,0</t>
-  </si>
-  <si>
-    <t>30,30,30,0</t>
-  </si>
-  <si>
-    <t>"中量","中量","中量","中量","中量","中量","中量","中量",</t>
-  </si>
-  <si>
-    <t>11,11,11,11</t>
-  </si>
-  <si>
-    <t>11,11,11,43</t>
-  </si>
-  <si>
-    <t>绿色彩贝、普通抽奖、高级抽奖</t>
-  </si>
-  <si>
-    <t>小海龟一直是海里的广播员，只要他知道的事情大家也会第一时间知道。</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu46</t>
-  </si>
-  <si>
-    <t>狮子鱼</t>
-  </si>
-  <si>
-    <t>"中量","大量","中量","大量","中量","大量","中量","大量",</t>
-  </si>
-  <si>
-    <t>12,12,12,12</t>
-  </si>
-  <si>
-    <t>12,12,12,44</t>
-  </si>
-  <si>
-    <t>狮子鱼对于任何事物似乎都不感兴趣，当然这只有在他吃饱以后。</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu43</t>
-  </si>
-  <si>
-    <t>魔鬼鱼</t>
-  </si>
-  <si>
-    <t>50,50,50,0</t>
-  </si>
-  <si>
-    <t>13,13,13,13</t>
-  </si>
-  <si>
-    <t>13,13,13,45</t>
-  </si>
-  <si>
-    <t>冰冷的外表，不喜欢接触其他人，是个难以靠近的家伙。</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu47</t>
-  </si>
-  <si>
-    <t>虎鲨</t>
-  </si>
-  <si>
-    <t>14,14,14,14</t>
-  </si>
-  <si>
-    <t>14,14,14,46</t>
-  </si>
-  <si>
-    <t>骄傲自大，总认为自己是海底的霸主，常常自找苦头。</t>
-  </si>
-  <si>
     <t>3dby_icon_yu22</t>
   </si>
   <si>
@@ -596,9 +603,6 @@
     <t>3dby_icon_yu58</t>
   </si>
   <si>
-    <t>深海鲸</t>
-  </si>
-  <si>
     <t>172800,172800,172800,0</t>
   </si>
   <si>
@@ -621,9 +625,6 @@
   </si>
   <si>
     <t>3dby_icon_yu38</t>
-  </si>
-  <si>
-    <t>霸王蟹</t>
   </si>
   <si>
     <t>1,2,3,4</t>
@@ -730,6 +731,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>l</t>
@@ -739,6 +741,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -775,6 +778,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -785,6 +789,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -803,6 +808,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -813,6 +819,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -831,6 +838,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -841,6 +849,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -859,6 +868,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -869,6 +879,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -887,6 +898,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -897,6 +909,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -915,6 +928,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -925,6 +939,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1525,18 +1540,20 @@
   <si>
     <t>group</t>
   </si>
+  <si>
+    <t>刺角蓝鲸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸王蟹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1548,165 +1565,47 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1721,31 +1620,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1763,162 +1662,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1961,261 +1710,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2230,7 +1737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2239,10 +1746,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2284,7 +1791,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -2293,73 +1809,41 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2617,21 +2101,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
@@ -2649,7 +2131,7 @@
     <col min="16" max="16" width="15.5" customWidth="1"/>
     <col min="17" max="17" width="14.375" customWidth="1"/>
     <col min="18" max="18" width="40.125" customWidth="1"/>
-    <col min="19" max="19" width="24.375" customWidth="1"/>
+    <col min="19" max="19" width="81.625" customWidth="1"/>
     <col min="20" max="20" width="13.375" customWidth="1"/>
     <col min="21" max="21" width="14.375" customWidth="1"/>
     <col min="22" max="22" width="13.125" customWidth="1"/>
@@ -2666,7 +2148,7 @@
     <col min="35" max="35" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60.75" customHeight="1" spans="1:23">
+    <row r="1" spans="1:23" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2721,21 +2203,21 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="U1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="V1" s="36" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="5"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2761,10 +2243,10 @@
       <c r="I2" s="17">
         <v>10</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -2801,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2827,10 +2309,10 @@
       <c r="I3" s="17">
         <v>10</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L3" s="5" t="s">
@@ -2867,7 +2349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2893,10 +2375,10 @@
       <c r="I4" s="17">
         <v>10</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="5" t="s">
@@ -2933,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2959,10 +2441,10 @@
       <c r="I5" s="17">
         <v>10</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="5" t="s">
@@ -2999,7 +2481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3025,10 +2507,10 @@
       <c r="I6" s="17">
         <v>10</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L6" s="5" t="s">
@@ -3065,7 +2547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3091,10 +2573,10 @@
       <c r="I7" s="17">
         <v>10</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -3131,7 +2613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3157,10 +2639,10 @@
       <c r="I8" s="17">
         <v>10</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -3197,7 +2679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3223,10 +2705,10 @@
       <c r="I9" s="18">
         <v>30</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L9" s="5" t="s">
@@ -3250,68 +2732,68 @@
       <c r="R9" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="S9" s="31" t="s">
+      <c r="S9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="T9" s="31" t="s">
+      <c r="T9" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="31"/>
+      <c r="U9" s="37"/>
       <c r="V9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="26">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>9</v>
-      </c>
-      <c r="C10" s="24">
+      <c r="B10" s="26">
+        <v>11</v>
+      </c>
+      <c r="C10" s="26">
         <v>0.8</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="3">
+      <c r="F10" s="27"/>
+      <c r="G10" s="26">
         <v>2</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="28">
         <v>5</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="28">
         <v>30</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="R10" s="18" t="s">
+      <c r="R10" s="28" t="s">
         <v>80</v>
       </c>
       <c r="S10" t="s">
@@ -3324,57 +2806,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="26">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>10</v>
-      </c>
-      <c r="C11" s="24">
+      <c r="B11" s="26">
+        <v>12</v>
+      </c>
+      <c r="C11" s="26">
         <v>0.8</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="3">
+      <c r="F11" s="27"/>
+      <c r="G11" s="26">
         <v>2</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="28">
         <v>5</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="28">
         <v>30</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="R11" s="18" t="s">
+      <c r="R11" s="28" t="s">
         <v>80</v>
       </c>
       <c r="S11" t="s">
@@ -3387,57 +2869,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="26">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>11</v>
-      </c>
-      <c r="C12" s="24">
-        <v>0.8</v>
-      </c>
-      <c r="D12" s="25" t="s">
+      <c r="B12" s="26">
+        <v>17</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="3">
+      <c r="F12" s="29"/>
+      <c r="G12" s="26">
         <v>2</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="28">
         <v>5</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="28">
         <v>30</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P12" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="R12" s="18" t="s">
+      <c r="R12" s="28" t="s">
         <v>100</v>
       </c>
       <c r="S12" t="s">
@@ -3450,57 +2932,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>12</v>
-      </c>
-      <c r="C13" s="24">
-        <v>0.8</v>
-      </c>
-      <c r="D13" s="25" t="s">
+      <c r="B13" s="26">
+        <v>18</v>
+      </c>
+      <c r="C13" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="3">
+      <c r="F13" s="27"/>
+      <c r="G13" s="26">
         <v>2</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="28">
         <v>5</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="28">
         <v>30</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="K13" s="28" t="s">
+      <c r="K13" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="R13" s="18" t="s">
+      <c r="R13" s="28" t="s">
         <v>100</v>
       </c>
       <c r="S13" t="s">
@@ -3513,57 +2995,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="26">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
-        <v>17</v>
-      </c>
-      <c r="C14" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="B14" s="26">
+        <v>10</v>
+      </c>
+      <c r="C14" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="D14" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="3">
+      <c r="F14" s="27"/>
+      <c r="G14" s="26">
         <v>2</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="28">
         <v>5</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="28">
         <v>30</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="28" t="s">
+      <c r="K14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="P14" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="R14" s="18" t="s">
+      <c r="R14" s="28" t="s">
         <v>100</v>
       </c>
       <c r="S14" t="s">
@@ -3576,57 +3058,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="26">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
-        <v>18</v>
-      </c>
-      <c r="C15" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="D15" s="25" t="s">
+      <c r="B15" s="26">
+        <v>9</v>
+      </c>
+      <c r="C15" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="D15" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="3">
+      <c r="F15" s="27"/>
+      <c r="G15" s="26">
         <v>2</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="28">
         <v>5</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="28">
         <v>30</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="K15" s="28" t="s">
+      <c r="K15" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="P15" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="R15" s="18" t="s">
+      <c r="R15" s="28" t="s">
         <v>100</v>
       </c>
       <c r="S15" t="s">
@@ -3639,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3665,10 +3147,10 @@
       <c r="I16" s="19">
         <v>50</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="K16" s="28" t="s">
+      <c r="K16" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L16" s="5" t="s">
@@ -3702,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3728,10 +3210,10 @@
       <c r="I17" s="19">
         <v>50</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="K17" s="28" t="s">
+      <c r="K17" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L17" s="5" t="s">
@@ -3765,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -3791,10 +3273,10 @@
       <c r="I18" s="19">
         <v>50</v>
       </c>
-      <c r="J18" s="27" t="s">
+      <c r="J18" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="28" t="s">
+      <c r="K18" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L18" s="5" t="s">
@@ -3819,7 +3301,7 @@
         <v>125</v>
       </c>
       <c r="S18" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="T18" s="5" t="s">
         <v>34</v>
@@ -3828,7 +3310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3854,10 +3336,10 @@
       <c r="I19" s="19">
         <v>50</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="K19" s="28" t="s">
+      <c r="K19" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L19" s="5" t="s">
@@ -3891,7 +3373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -3917,10 +3399,10 @@
       <c r="I20" s="19">
         <v>50</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="K20" s="28" t="s">
+      <c r="K20" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L20" s="5" t="s">
@@ -3954,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3980,10 +3462,10 @@
       <c r="I21" s="19">
         <v>50</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="K21" s="28" t="s">
+      <c r="K21" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L21" s="5" t="s">
@@ -4017,7 +3499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -4043,10 +3525,10 @@
       <c r="I22" s="19">
         <v>50</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="J22" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="K22" s="28" t="s">
+      <c r="K22" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="5" t="s">
@@ -4080,7 +3562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -4106,10 +3588,10 @@
       <c r="I23" s="19">
         <v>50</v>
       </c>
-      <c r="J23" s="27" t="s">
+      <c r="J23" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="K23" s="28" t="s">
+      <c r="K23" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L23" s="5" t="s">
@@ -4143,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -4169,10 +3651,10 @@
       <c r="I24" s="20">
         <v>80</v>
       </c>
-      <c r="J24" s="27" t="s">
+      <c r="J24" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="K24" s="28" t="s">
+      <c r="K24" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L24" s="5" t="s">
@@ -4206,7 +3688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -4232,10 +3714,10 @@
       <c r="I25" s="20">
         <v>80</v>
       </c>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="K25" s="28" t="s">
+      <c r="K25" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L25" s="5" t="s">
@@ -4269,21 +3751,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C26" s="24">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>183</v>
+      <c r="E26" s="38" t="s">
+        <v>447</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="3">
@@ -4295,17 +3777,17 @@
       <c r="I26" s="21">
         <v>100</v>
       </c>
-      <c r="J26" s="27" t="s">
+      <c r="J26" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="K26" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="K26" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="L26" s="5" t="s">
+      <c r="M26" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>171</v>
@@ -4314,16 +3796,16 @@
         <v>29</v>
       </c>
       <c r="P26" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q26" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="Q26" s="5" t="s">
+      <c r="R26" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="R26" s="21" t="s">
+      <c r="S26" t="s">
         <v>189</v>
-      </c>
-      <c r="S26" t="s">
-        <v>190</v>
       </c>
       <c r="T26" s="5" t="s">
         <v>34</v>
@@ -4332,7 +3814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -4343,10 +3825,10 @@
         <v>0.4</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>448</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="3">
@@ -4358,10 +3840,10 @@
       <c r="I27" s="21">
         <v>100</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="J27" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="K27" s="28" t="s">
+      <c r="K27" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L27" s="5" t="s">
@@ -4371,22 +3853,22 @@
         <v>170</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>29</v>
       </c>
       <c r="P27" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="R27" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="S27" t="s">
         <v>194</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="R27" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="S27" t="s">
-        <v>196</v>
       </c>
       <c r="T27" s="5" t="s">
         <v>34</v>
@@ -4395,7 +3877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -4406,10 +3888,10 @@
         <v>0.4</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="3">
@@ -4421,10 +3903,10 @@
       <c r="I28" s="21">
         <v>100</v>
       </c>
-      <c r="J28" s="27" t="s">
+      <c r="J28" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="K28" s="28" t="s">
+      <c r="K28" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L28" s="5" t="s">
@@ -4434,22 +3916,22 @@
         <v>170</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O28" s="5" t="s">
         <v>29</v>
       </c>
       <c r="P28" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="R28" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="S28" t="s">
         <v>199</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="R28" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="S28" t="s">
-        <v>201</v>
       </c>
       <c r="T28" s="5" t="s">
         <v>34</v>
@@ -4458,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -4469,10 +3951,10 @@
         <v>0.4</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="3">
@@ -4484,35 +3966,35 @@
       <c r="I29" s="21">
         <v>100</v>
       </c>
-      <c r="J29" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="K29" s="28" t="s">
+      <c r="J29" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="K29" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>178</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O29" s="5" t="s">
         <v>29</v>
       </c>
       <c r="P29" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="R29" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="S29" t="s">
         <v>205</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="R29" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="S29" t="s">
-        <v>207</v>
       </c>
       <c r="T29" s="5" t="s">
         <v>34</v>
@@ -4521,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -4532,10 +4014,10 @@
         <v>0.4</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="3">
@@ -4547,35 +4029,35 @@
       <c r="I30" s="21">
         <v>100</v>
       </c>
-      <c r="J30" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="K30" s="28" t="s">
+      <c r="J30" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="K30" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O30" s="5" t="s">
         <v>29</v>
       </c>
       <c r="P30" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="R30" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="S30" t="s">
         <v>212</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="R30" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="S30" t="s">
-        <v>214</v>
       </c>
       <c r="T30" s="5" t="s">
         <v>34</v>
@@ -4584,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -4595,10 +4077,10 @@
         <v>0.4</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="3">
@@ -4610,17 +4092,17 @@
       <c r="I31" s="21">
         <v>100</v>
       </c>
-      <c r="J31" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="K31" s="28" t="s">
+      <c r="J31" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="K31" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>178</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>171</v>
@@ -4629,16 +4111,16 @@
         <v>29</v>
       </c>
       <c r="P31" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="R31" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="S31" t="s">
         <v>217</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="R31" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="S31" t="s">
-        <v>219</v>
       </c>
       <c r="T31" s="5" t="s">
         <v>34</v>
@@ -4647,7 +4129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -4658,10 +4140,10 @@
         <v>0.4</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G32" s="3">
         <v>5</v>
@@ -4672,35 +4154,35 @@
       <c r="I32" s="21">
         <v>100</v>
       </c>
-      <c r="J32" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="K32" s="28" t="s">
+      <c r="J32" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="K32" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O32" s="5" t="s">
         <v>29</v>
       </c>
       <c r="P32" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="R32" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="S32" t="s">
         <v>223</v>
-      </c>
-      <c r="Q32" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="R32" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="S32" t="s">
-        <v>225</v>
       </c>
       <c r="T32" s="5" t="s">
         <v>34</v>
@@ -4709,7 +4191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="24"/>
@@ -4719,8 +4201,8 @@
       <c r="G33" s="3"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="28"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="31"/>
       <c r="L33" s="5"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
@@ -4731,95 +4213,93 @@
       <c r="T33" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:3">
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C2" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C3" s="3">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:4">
+    <row r="1" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4827,13 +4307,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4841,13 +4321,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4855,13 +4335,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4870,13 +4350,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4885,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4900,13 +4380,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4915,13 +4395,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4930,13 +4410,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4945,13 +4425,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4960,13 +4440,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4975,13 +4455,13 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4990,13 +4470,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5005,13 +4485,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5020,13 +4500,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5035,13 +4515,13 @@
         <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5050,13 +4530,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5065,13 +4545,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5080,13 +4560,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5095,13 +4575,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5110,13 +4590,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5125,13 +4605,13 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5140,13 +4620,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5155,14 +4635,14 @@
         <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5171,14 +4651,14 @@
         <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5187,13 +4667,13 @@
         <v>9</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5202,13 +4682,13 @@
         <v>9</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5217,13 +4697,13 @@
         <v>9</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5232,13 +4712,13 @@
         <v>10</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5247,13 +4727,13 @@
         <v>10</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5262,13 +4742,13 @@
         <v>10</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5277,13 +4757,13 @@
         <v>11</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5292,13 +4772,13 @@
         <v>11</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5307,13 +4787,13 @@
         <v>11</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5322,13 +4802,13 @@
         <v>12</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5337,13 +4817,13 @@
         <v>12</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5352,13 +4832,13 @@
         <v>12</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5367,13 +4847,13 @@
         <v>13</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5382,13 +4862,13 @@
         <v>13</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5397,13 +4877,13 @@
         <v>13</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5412,13 +4892,13 @@
         <v>14</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5427,13 +4907,13 @@
         <v>14</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5442,13 +4922,13 @@
         <v>14</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5457,13 +4937,13 @@
         <v>15</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5472,13 +4952,13 @@
         <v>15</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5487,13 +4967,13 @@
         <v>15</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5502,13 +4982,13 @@
         <v>16</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5517,13 +4997,13 @@
         <v>16</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5532,13 +5012,13 @@
         <v>16</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5547,13 +5027,13 @@
         <v>17</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5562,13 +5042,13 @@
         <v>17</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5577,13 +5057,13 @@
         <v>17</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5592,13 +5072,13 @@
         <v>18</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5607,13 +5087,13 @@
         <v>18</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5622,13 +5102,13 @@
         <v>18</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5637,13 +5117,13 @@
         <v>19</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5652,13 +5132,13 @@
         <v>19</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5667,13 +5147,13 @@
         <v>19</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5682,13 +5162,13 @@
         <v>20</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5697,13 +5177,13 @@
         <v>20</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5712,13 +5192,13 @@
         <v>20</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5727,13 +5207,13 @@
         <v>21</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5742,13 +5222,13 @@
         <v>21</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5757,13 +5237,13 @@
         <v>21</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5772,13 +5252,13 @@
         <v>22</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5787,13 +5267,13 @@
         <v>22</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5802,13 +5282,13 @@
         <v>22</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5817,13 +5297,13 @@
         <v>23</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5832,28 +5312,28 @@
         <v>23</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="5">
-        <f t="shared" ref="B70:B97" si="1">B67+1</f>
+        <f t="shared" ref="B70:B94" si="1">B67+1</f>
         <v>23</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5862,13 +5342,13 @@
         <v>24</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5877,13 +5357,13 @@
         <v>24</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5892,13 +5372,13 @@
         <v>24</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5907,13 +5387,13 @@
         <v>25</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5922,13 +5402,13 @@
         <v>25</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5937,13 +5417,13 @@
         <v>25</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D76" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5952,13 +5432,13 @@
         <v>26</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5967,13 +5447,13 @@
         <v>26</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5982,13 +5462,13 @@
         <v>26</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5997,13 +5477,13 @@
         <v>27</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6012,13 +5492,13 @@
         <v>27</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6027,13 +5507,13 @@
         <v>27</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6042,13 +5522,13 @@
         <v>28</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6057,13 +5537,13 @@
         <v>28</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6072,13 +5552,13 @@
         <v>28</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6087,13 +5567,13 @@
         <v>29</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6102,13 +5582,13 @@
         <v>29</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6117,13 +5597,13 @@
         <v>29</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6132,13 +5612,13 @@
         <v>30</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6147,13 +5627,13 @@
         <v>30</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6162,13 +5642,13 @@
         <v>30</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6177,13 +5657,13 @@
         <v>31</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6192,13 +5672,13 @@
         <v>31</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6207,64 +5687,61 @@
         <v>31</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B95" s="5"/>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B96" s="5"/>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B97" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C94">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="C1:C94"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="16.875" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:6">
+    <row r="1" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6272,16 +5749,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D2" s="16">
         <v>100</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6289,7 +5766,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D3" s="16">
         <v>200</v>
@@ -6299,7 +5776,7 @@
         <v>1,1,1,33</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6307,7 +5784,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D4" s="16">
         <v>300</v>
@@ -6317,7 +5794,7 @@
         <v>2,2,2,34</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6325,7 +5802,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D5" s="16">
         <v>500</v>
@@ -6335,7 +5812,7 @@
         <v>3,3,3,35</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6343,7 +5820,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D6" s="4">
         <v>600</v>
@@ -6353,7 +5830,7 @@
         <v>4,4,4,36</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6361,7 +5838,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D7" s="4">
         <v>800</v>
@@ -6371,7 +5848,7 @@
         <v>5,5,5,37</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6379,7 +5856,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D8" s="4">
         <v>1000</v>
@@ -6389,7 +5866,7 @@
         <v>6,6,6,38</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6397,7 +5874,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D9" s="4">
         <v>5000</v>
@@ -6407,7 +5884,7 @@
         <v>7,7,7,39</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6415,7 +5892,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D10" s="4">
         <v>8000</v>
@@ -6425,7 +5902,7 @@
         <v>8,8,8,40</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6433,7 +5910,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D11" s="4">
         <v>10000</v>
@@ -6443,7 +5920,7 @@
         <v>9,9,9,41</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6451,7 +5928,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D12" s="4">
         <v>30000</v>
@@ -6461,7 +5938,7 @@
         <v>10,10,10,42</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6469,7 +5946,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D13" s="4">
         <v>50000</v>
@@ -6479,7 +5956,7 @@
         <v>11,11,11,43</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6487,7 +5964,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D14" s="4">
         <v>80000</v>
@@ -6497,7 +5974,7 @@
         <v>12,12,12,44</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6505,7 +5982,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D15" s="4">
         <v>100000</v>
@@ -6515,7 +5992,7 @@
         <v>13,13,13,45</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6523,7 +6000,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D16" s="4">
         <v>80000</v>
@@ -6533,7 +6010,7 @@
         <v>14,14,14,46</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6541,7 +6018,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D17" s="4">
         <v>100000</v>
@@ -6551,7 +6028,7 @@
         <v>15,15,15,47</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6559,7 +6036,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D18" s="4">
         <v>150000</v>
@@ -6569,7 +6046,7 @@
         <v>16,16,16,48</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6577,7 +6054,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D19" s="4">
         <v>200000</v>
@@ -6587,7 +6064,7 @@
         <v>17,17,17,49</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6595,7 +6072,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D20" s="4">
         <v>300000</v>
@@ -6605,7 +6082,7 @@
         <v>18,18,18,50</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6613,7 +6090,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D21" s="4">
         <v>500000</v>
@@ -6623,7 +6100,7 @@
         <v>19,19,19,51</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6631,7 +6108,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D22" s="4">
         <v>300000</v>
@@ -6641,7 +6118,7 @@
         <v>20,20,20,52</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6649,7 +6126,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D23" s="4">
         <v>500000</v>
@@ -6659,7 +6136,7 @@
         <v>21,21,21,53</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6667,7 +6144,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D24" s="4">
         <v>300000</v>
@@ -6677,7 +6154,7 @@
         <v>22,22,22,54</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6685,7 +6162,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D25" s="4">
         <v>500000</v>
@@ -6695,7 +6172,7 @@
         <v>23,23,23,55</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6703,7 +6180,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D26" s="4">
         <v>800000</v>
@@ -6713,7 +6190,7 @@
         <v>24,24,24,56</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6721,7 +6198,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D27" s="4">
         <v>500000</v>
@@ -6731,7 +6208,7 @@
         <v>25,25,25,57</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6739,7 +6216,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D28" s="4">
         <v>800000</v>
@@ -6749,7 +6226,7 @@
         <v>26,26,26,58</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6757,7 +6234,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D29" s="4">
         <v>1000000</v>
@@ -6767,7 +6244,7 @@
         <v>27,27,27,59</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6775,7 +6252,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D30" s="4">
         <v>1000000</v>
@@ -6785,7 +6262,7 @@
         <v>28,28,28,60</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6793,7 +6270,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D31" s="4">
         <v>1500000</v>
@@ -6803,7 +6280,7 @@
         <v>29,29,29,61</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6811,7 +6288,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D32" s="4">
         <v>2000000</v>
@@ -6821,7 +6298,7 @@
         <v>30,30,30,62</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6829,7 +6306,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D33" s="4">
         <v>5000000</v>
@@ -6839,7 +6316,7 @@
         <v>31,31,31,63</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6847,7 +6324,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D34" s="4">
         <v>1000</v>
@@ -6857,7 +6334,7 @@
         <v>32,32,32,64</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6865,13 +6342,13 @@
         <v>34</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D35" s="4">
         <v>2600</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6879,13 +6356,13 @@
         <v>35</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D36" s="4">
         <v>3600</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6893,13 +6370,13 @@
         <v>36</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D37" s="4">
         <v>4400</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6907,13 +6384,13 @@
         <v>37</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D38" s="4">
         <v>6240</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6921,13 +6398,13 @@
         <v>38</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D39" s="4">
         <v>7040</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6935,13 +6412,13 @@
         <v>39</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D40" s="4">
         <v>7840</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6949,13 +6426,13 @@
         <v>40</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D41" s="4">
         <v>24000</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6963,13 +6440,13 @@
         <v>41</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D42" s="4">
         <v>36000</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6977,13 +6454,13 @@
         <v>42</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D43" s="4">
         <v>44000</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6991,13 +6468,13 @@
         <v>43</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D44" s="4">
         <v>132000</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -7005,13 +6482,13 @@
         <v>44</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D45" s="4">
         <v>212000</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -7019,13 +6496,13 @@
         <v>45</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D46" s="4">
         <v>340000</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7033,13 +6510,13 @@
         <v>46</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D47" s="4">
         <v>420000</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7047,13 +6524,13 @@
         <v>47</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D48" s="4">
         <v>352000</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7061,13 +6538,13 @@
         <v>48</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D49" s="4">
         <v>464000</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7075,13 +6552,13 @@
         <v>49</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D50" s="4">
         <v>664000</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7089,13 +6566,13 @@
         <v>50</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D51" s="4">
         <v>960000</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7103,13 +6580,13 @@
         <v>51</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D52" s="4">
         <v>1520000</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7117,13 +6594,13 @@
         <v>52</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D53" s="4">
         <v>2320000</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7131,13 +6608,13 @@
         <v>53</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D54" s="4">
         <v>1520000</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7145,13 +6622,13 @@
         <v>54</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D55" s="4">
         <v>2320000</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7159,13 +6636,13 @@
         <v>55</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D56" s="4">
         <v>1680000</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7173,13 +6650,13 @@
         <v>56</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D57" s="4">
         <v>3200000</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7187,13 +6664,13 @@
         <v>57</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D58" s="4">
         <v>5600000</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7201,13 +6678,13 @@
         <v>58</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D59" s="4">
         <v>2320000</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7215,13 +6692,13 @@
         <v>59</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D60" s="4">
         <v>4000000</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7229,13 +6706,13 @@
         <v>60</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D61" s="4">
         <v>4800000</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7243,13 +6720,13 @@
         <v>61</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D62" s="4">
         <v>5600000</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7257,13 +6734,13 @@
         <v>62</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D63" s="4">
         <v>7200000</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7271,13 +6748,13 @@
         <v>63</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D64" s="4">
         <v>9600000</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7285,13 +6762,13 @@
         <v>64</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D65" s="4">
         <v>32000000</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7299,7 +6776,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D66" s="16">
         <v>100</v>
@@ -7308,7 +6785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7316,7 +6793,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D67" s="16">
         <v>200</v>
@@ -7325,7 +6802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7333,7 +6810,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D68" s="16">
         <v>300</v>
@@ -7342,7 +6819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7350,7 +6827,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D69" s="16">
         <v>500</v>
@@ -7359,7 +6836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7367,7 +6844,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D70" s="4">
         <v>600</v>
@@ -7376,7 +6853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7384,7 +6861,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D71" s="4">
         <v>800</v>
@@ -7393,7 +6870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7401,7 +6878,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D72" s="4">
         <v>1000</v>
@@ -7410,7 +6887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7418,7 +6895,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D73" s="4">
         <v>1666</v>
@@ -7427,7 +6904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -7435,7 +6912,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D74" s="4">
         <v>2666</v>
@@ -7444,7 +6921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -7452,7 +6929,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D75" s="4">
         <v>3333</v>
@@ -7461,7 +6938,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7469,7 +6946,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D76" s="4">
         <v>10000</v>
@@ -7478,7 +6955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7486,7 +6963,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D77" s="4">
         <v>16666</v>
@@ -7495,7 +6972,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7503,7 +6980,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D78" s="4">
         <v>26666</v>
@@ -7512,7 +6989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7520,7 +6997,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D79" s="4">
         <v>33333</v>
@@ -7529,7 +7006,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7537,7 +7014,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D80" s="4">
         <v>16000</v>
@@ -7546,7 +7023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7554,7 +7031,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D81" s="4">
         <v>20000</v>
@@ -7563,7 +7040,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7571,7 +7048,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D82" s="4">
         <v>30000</v>
@@ -7580,7 +7057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7588,7 +7065,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D83" s="4">
         <v>40000</v>
@@ -7597,7 +7074,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7605,7 +7082,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D84" s="4">
         <v>60000</v>
@@ -7614,7 +7091,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7622,7 +7099,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D85" s="4">
         <v>100000</v>
@@ -7631,7 +7108,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7639,7 +7116,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D86" s="4">
         <v>60000</v>
@@ -7648,7 +7125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7656,7 +7133,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D87" s="4">
         <v>100000</v>
@@ -7665,7 +7142,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7673,7 +7150,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D88" s="4">
         <v>37500</v>
@@ -7682,7 +7159,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7690,7 +7167,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D89" s="4">
         <v>62500</v>
@@ -7699,7 +7176,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7707,7 +7184,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D90" s="4">
         <v>100000</v>
@@ -7716,7 +7193,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7724,7 +7201,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D91" s="4">
         <v>50000</v>
@@ -7733,7 +7210,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7741,7 +7218,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D92" s="4">
         <v>80000</v>
@@ -7750,7 +7227,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7758,7 +7235,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D93" s="4">
         <v>100000</v>
@@ -7767,7 +7244,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7775,7 +7252,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D94" s="4">
         <v>100000</v>
@@ -7784,7 +7261,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7792,7 +7269,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D95" s="4">
         <v>150000</v>
@@ -7801,7 +7278,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7809,7 +7286,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D96" s="4">
         <v>200000</v>
@@ -7818,7 +7295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7826,7 +7303,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D97" s="4">
         <v>500000</v>
@@ -7836,21 +7313,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
@@ -7860,24 +7336,24 @@
     <col min="9" max="9" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:6">
+    <row r="1" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7885,7 +7361,7 @@
         <v>10000</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -7898,7 +7374,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7906,17 +7382,17 @@
         <v>20000</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I13" si="0">1000*(5*A3*A3)*D3</f>
+        <f t="shared" ref="I3:I7" si="0">1000*(5*A3*A3)*D3</f>
         <v>120000</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7924,7 +7400,7 @@
         <v>50000</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -7934,7 +7410,7 @@
         <v>315000</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7942,7 +7418,7 @@
         <v>150000</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D5" s="5">
         <v>8</v>
@@ -7955,7 +7431,7 @@
         <v>640000</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7963,7 +7439,7 @@
         <v>300000</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D6" s="5">
         <v>9</v>
@@ -7973,15 +7449,15 @@
         <v>1125000</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>99999999999</v>
+        <v>-1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -7994,1139 +7470,1138 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1" t="s">
         <v>330</v>
       </c>
-      <c r="B1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C26">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C33">
         <f>C2+64</f>
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C34">
         <f t="shared" ref="C34:C63" si="0">C3+64</f>
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C64">
         <f>C2+32</f>
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C65">
         <f t="shared" ref="C65:C94" si="1">C3+32</f>
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C67">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C72">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C74">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C76">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C77">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C78">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C79">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C80">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C81">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C84">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C85">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C86">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C87">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C89">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C90">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C91">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C92">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C93">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C94">
         <f t="shared" si="1"/>
@@ -9134,38 +8609,37 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:3">
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -9173,10 +8647,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -9184,10 +8658,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -9195,10 +8669,10 @@
         <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -9206,45 +8680,44 @@
         <v>30</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:4">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9258,7 +8731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9272,7 +8745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9287,40 +8760,39 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:4">
+    <row r="1" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9328,13 +8800,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D2" s="8">
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9342,13 +8814,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D3" s="8">
         <v>180000</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9356,57 +8828,56 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D4" s="4">
         <v>300000</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="7" max="7" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:7">
+    <row r="1" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -9418,17 +8889,17 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/fishbowl_config.xlsx
+++ b/config_Release/fishbowl_config.xlsx
@@ -2110,7 +2110,7 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3759,7 +3759,7 @@
         <v>53</v>
       </c>
       <c r="C26" s="24">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>182</v>
